--- a/authErp.xlsx
+++ b/authErp.xlsx
@@ -11,55 +11,44 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
+    <t>공급자명</t>
+  </si>
+  <si>
     <t>공급자번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GL일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공급자명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액</t>
   </si>
   <si>
     <t>새하컴즈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온소프트주식회사</t>
   </si>
   <si>
     <t>티씨씨아이엔에스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>피앤에스정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>골든시스㈜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>더존비즈온</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>오리진컨설팅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>온소프트주식회사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -131,22 +120,23 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="쉼표 [0] 2" xfId="2"/>
@@ -450,114 +440,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.75" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3">
         <v>92553</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>110000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3">
         <v>90307</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>275000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3">
         <v>91362</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>1078000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3">
         <v>90154</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>440000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3">
         <v>91884</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>330000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3">
         <v>91833</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>478500</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3">
         <v>92553</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="5">
         <v>916666</v>
       </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 

--- a/authErp.xlsx
+++ b/authErp.xlsx
@@ -1,107 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12570" windowWidth="28035" xWindow="360" yWindow="45"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>공급자명</t>
-  </si>
-  <si>
-    <t>공급자번호</t>
-  </si>
-  <si>
-    <t>GL일자</t>
-  </si>
-  <si>
-    <t>금액</t>
-  </si>
-  <si>
-    <t>새하컴즈</t>
-  </si>
-  <si>
-    <t>온소프트주식회사</t>
-  </si>
-  <si>
-    <t>티씨씨아이엔에스</t>
-  </si>
-  <si>
-    <t>피앤에스정보</t>
-  </si>
-  <si>
-    <t>골든시스㈜</t>
-  </si>
-  <si>
-    <t>더존비즈온</t>
-  </si>
-  <si>
-    <t>오리진컨설팅</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt formatCode="0_ " numFmtId="164"/>
+    <numFmt formatCode="#,##0_);[Red]\(#,##0\)" numFmtId="165"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
       <sz val="11"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <b/>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -116,40 +77,41 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="41"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="9">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle builtinId="0" name="표준" xfId="0"/>
+    <cellStyle name="표준 2" xfId="1"/>
     <cellStyle name="쉼표 [0] 2" xfId="2"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -439,143 +401,442 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.75" style="2" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="2" width="17.25"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="2" width="38.75"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="2" width="23.375"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="2" width="15.625"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="2" width="26.875"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="2" width="26.25"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="2" width="20.125"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="2" width="14.75"/>
+    <col customWidth="1" max="9" min="9" style="2" width="18.125"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" style="2" width="12.5"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="2" width="27.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+    <row customHeight="1" ht="26.25" r="1" s="2">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>공급자명</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>공급자번호(supply_number)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>GL일자(GL_date)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>금액(price)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>GL상쇄(GL_sangse)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>과세종목(vat_type)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>세율/세역(vat)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>계정번호</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>관리항목유형</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>관리항목</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>비고</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3">
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>새하컴즈</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="n">
         <v>92553</v>
       </c>
-      <c r="D2" s="4">
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>14/14/14</t>
+        </is>
+      </c>
+      <c r="D2" s="7" t="n">
         <v>110000</v>
       </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>B10</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>VAT</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>12030.61510.10</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>20509</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3">
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>온소프트주식회사</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="n">
         <v>90307</v>
       </c>
-      <c r="D3" s="4">
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>20/01/20</t>
+        </is>
+      </c>
+      <c r="D3" s="7" t="n">
         <v>275000</v>
       </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>B10</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>VAT</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>12030.61510.10</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>20509</v>
+      </c>
+      <c r="K3" s="0" t="inlineStr">
+        <is>
+          <t>CRM 시스템 유지보수/1</t>
+        </is>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3">
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>티씨씨아이엔에스</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="n">
         <v>91362</v>
       </c>
-      <c r="D4" s="4">
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>20/01/15</t>
+        </is>
+      </c>
+      <c r="D4" s="7" t="n">
         <v>1078000</v>
       </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>B10</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>VAT</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>12030.61510.10</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>20509</v>
+      </c>
+      <c r="K4" s="0" t="inlineStr">
+        <is>
+          <t>서버 및 스토리지 유지보수비/1</t>
+        </is>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3">
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>피앤에스정보</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="n">
         <v>90154</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="7" t="n">
         <v>440000</v>
       </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>B10</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>VAT</t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>12030.61510.10</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>20509</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3">
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>골든시스㈜</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="n">
         <v>91884</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="7" t="n">
         <v>330000</v>
       </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>B10</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>VAT</t>
+        </is>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>12030.61510.10</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>20509</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3">
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>더존비즈온</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="n">
         <v>91833</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="7" t="n">
         <v>478500</v>
       </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>B10</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>VAT</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>12030.61510.10</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>20509</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="3">
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>오리진컨설팅</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="n">
         <v>92553</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="8" t="n">
         <v>916666</v>
       </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>B10</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t>VAT</t>
+        </is>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>12030.61510.10</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>20509</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10"/>
+    <row r="10">
+      <c r="A10" s="0" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/authErp.xlsx
+++ b/authErp.xlsx
@@ -83,7 +83,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="41"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -91,6 +91,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -98,6 +101,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -406,10 +415,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -424,7 +433,7 @@
     <col bestFit="1" customWidth="1" max="8" min="8" style="2" width="14.75"/>
     <col customWidth="1" max="9" min="9" style="2" width="18.125"/>
     <col bestFit="1" customWidth="1" max="10" min="10" style="2" width="12.5"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="2" width="27.625"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="2" width="36.125"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="26.25" r="1" s="2">
@@ -490,15 +499,15 @@
           <t>새하컴즈</t>
         </is>
       </c>
-      <c r="B2" s="6" t="n">
-        <v>92553</v>
+      <c r="B2" s="9" t="n">
+        <v>91253</v>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>14/14/14</t>
-        </is>
-      </c>
-      <c r="D2" s="7" t="n">
+          <t>20/08/01</t>
+        </is>
+      </c>
+      <c r="D2" s="10" t="n">
         <v>110000</v>
       </c>
       <c r="E2" s="0" t="inlineStr">
@@ -528,6 +537,11 @@
       </c>
       <c r="J2" s="0" t="n">
         <v>20509</v>
+      </c>
+      <c r="K2" s="0" t="inlineStr">
+        <is>
+          <t>화상회의 임대료/1</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -536,15 +550,15 @@
           <t>온소프트주식회사</t>
         </is>
       </c>
-      <c r="B3" s="6" t="n">
+      <c r="B3" s="9" t="n">
         <v>90307</v>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>20/01/20</t>
-        </is>
-      </c>
-      <c r="D3" s="7" t="n">
+          <t>20/07/20</t>
+        </is>
+      </c>
+      <c r="D3" s="10" t="n">
         <v>275000</v>
       </c>
       <c r="E3" s="0" t="inlineStr">
@@ -587,15 +601,15 @@
           <t>티씨씨아이엔에스</t>
         </is>
       </c>
-      <c r="B4" s="6" t="n">
+      <c r="B4" s="9" t="n">
         <v>91362</v>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>20/01/15</t>
-        </is>
-      </c>
-      <c r="D4" s="7" t="n">
+          <t>20/08/15</t>
+        </is>
+      </c>
+      <c r="D4" s="10" t="n">
         <v>1078000</v>
       </c>
       <c r="E4" s="0" t="inlineStr">
@@ -638,10 +652,15 @@
           <t>피앤에스정보</t>
         </is>
       </c>
-      <c r="B5" s="6" t="n">
+      <c r="B5" s="9" t="n">
         <v>90154</v>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>20/07/25</t>
+        </is>
+      </c>
+      <c r="D5" s="10" t="n">
         <v>440000</v>
       </c>
       <c r="E5" s="0" t="inlineStr">
@@ -671,6 +690,11 @@
       </c>
       <c r="J5" s="0" t="n">
         <v>20509</v>
+      </c>
+      <c r="K5" s="0" t="inlineStr">
+        <is>
+          <t>오라클 유지보수비/1</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -679,10 +703,10 @@
           <t>골든시스㈜</t>
         </is>
       </c>
-      <c r="B6" s="6" t="n">
+      <c r="B6" s="9" t="n">
         <v>91884</v>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="10" t="n">
         <v>330000</v>
       </c>
       <c r="E6" s="0" t="inlineStr">
@@ -720,10 +744,15 @@
           <t>더존비즈온</t>
         </is>
       </c>
-      <c r="B7" s="6" t="n">
+      <c r="B7" s="9" t="n">
         <v>91833</v>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>20/07/31</t>
+        </is>
+      </c>
+      <c r="D7" s="10" t="n">
         <v>478500</v>
       </c>
       <c r="E7" s="0" t="inlineStr">
@@ -753,6 +782,11 @@
       </c>
       <c r="J7" s="0" t="n">
         <v>20509</v>
+      </c>
+      <c r="K7" s="0" t="inlineStr">
+        <is>
+          <t>그룹웨어 클라우드 서비스비/1</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -761,10 +795,15 @@
           <t>오리진컨설팅</t>
         </is>
       </c>
-      <c r="B8" s="6" t="n">
+      <c r="B8" s="9" t="n">
         <v>92553</v>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>20/07/20</t>
+        </is>
+      </c>
+      <c r="D8" s="11" t="n">
         <v>916666</v>
       </c>
       <c r="E8" s="0" t="inlineStr">
@@ -795,9 +834,368 @@
       <c r="J8" s="0" t="n">
         <v>20509</v>
       </c>
+      <c r="K8" s="0" t="inlineStr">
+        <is>
+          <t>ERP 유지보수비/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>에스원 영천</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>90227</v>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>20/02/03</t>
+        </is>
+      </c>
+      <c r="D9" s="10" t="n">
+        <v>2207040</v>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>B10</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>VAT</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>12020.12390.99</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>20509</v>
+      </c>
+      <c r="K9" s="0" t="inlineStr">
+        <is>
+          <t>클라이언트 백신(VP)1년 라이센스비/1</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="n"/>
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>오리진컨설팅</t>
+        </is>
+      </c>
+      <c r="B10" s="9" t="n">
+        <v>92553</v>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>20/02/11</t>
+        </is>
+      </c>
+      <c r="D10" s="11" t="n">
+        <v>1071884</v>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>B10</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t>VAT</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>12030.61640.99</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>20509</v>
+      </c>
+      <c r="K10" s="0" t="inlineStr">
+        <is>
+          <t>ERP 업그레이드 실비/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>두리C&amp;B</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>90104</v>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>20/02/25</t>
+        </is>
+      </c>
+      <c r="D11" s="10" t="n">
+        <v>605000</v>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>B10</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G11" s="0" t="inlineStr">
+        <is>
+          <t>VAT</t>
+        </is>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>12030.61570.20</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>20509</v>
+      </c>
+      <c r="K11" s="0" t="inlineStr">
+        <is>
+          <t>거래명세표 10 Box 구매/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>오리진컨설팅</t>
+        </is>
+      </c>
+      <c r="B12" s="9" t="n">
+        <v>92553</v>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>20/02/24</t>
+        </is>
+      </c>
+      <c r="D12" s="11" t="n">
+        <v>20240000</v>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>B10</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t>VAT</t>
+        </is>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>12020.12270.10</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>20509</v>
+      </c>
+      <c r="K12" s="0" t="inlineStr">
+        <is>
+          <t>ERP 업그레이드 잔금/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>티씨씨아이엔에스</t>
+        </is>
+      </c>
+      <c r="B13" s="9" t="n">
+        <v>91362</v>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>20/03/10</t>
+        </is>
+      </c>
+      <c r="D13" s="10" t="n">
+        <v>1980000</v>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>B10</t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G13" s="0" t="inlineStr">
+        <is>
+          <t>VAT</t>
+        </is>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>12020.12390.99</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>20509</v>
+      </c>
+      <c r="K13" s="0" t="inlineStr">
+        <is>
+          <t>windows 2019 server 라이선스 구매/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>온소프트주식회사</t>
+        </is>
+      </c>
+      <c r="B14" s="9" t="n">
+        <v>90307</v>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>20/03/23</t>
+        </is>
+      </c>
+      <c r="D14" s="10" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>B10</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t>VAT</t>
+        </is>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>12020.12390.99</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>20509</v>
+      </c>
+      <c r="K14" s="0" t="inlineStr">
+        <is>
+          <t>Avast 서버용 백신 구매(1년)/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>케이탑시스템</t>
+        </is>
+      </c>
+      <c r="B15" s="9" t="n">
+        <v>91915</v>
+      </c>
+      <c r="C15" s="7" t="inlineStr">
+        <is>
+          <t>20/07/17</t>
+        </is>
+      </c>
+      <c r="D15" s="10" t="n">
+        <v>907500</v>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>B10</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G15" s="0" t="inlineStr">
+        <is>
+          <t>VAT</t>
+        </is>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>12020.12390.99</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>20509</v>
+      </c>
+      <c r="K15" s="0" t="inlineStr">
+        <is>
+          <t>식품사업부 온도 데이터 저장 개발/1</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
